--- a/medicine/Hématologie/Coagglutination_des_globules_rouges/Coagglutination_des_globules_rouges.xlsx
+++ b/medicine/Hématologie/Coagglutination_des_globules_rouges/Coagglutination_des_globules_rouges.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'agglutination mixte ou coagglutination des globules rouges est un test de laboratoire, utilisé dès les années 1950 d'abord en microbiologie puis en immuno-hématologie. 
 </t>
@@ -511,10 +523,12 @@
           <t>Présentation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Dans ce test, l'agglutination, témoin d'une réaction antigène-anticorps spécifique, implique deux  composantes  qui selon les cas peuvent être des particules inertes, des bactéries, ou d'autres cellules, en particulier des globules rouges. Dans ses applications immuno-hématologiques, l'agglutination des globules rougesporteurs d'un antigène donné (cellules tests), est provoquée par un anticorps spécifique de cet antigène qui, au lieu d'être libre comme dans le réactif liquide lors des groupages sanguins, est fixé, sans pouvoir les agglutiner, sur d'autres cellules porteurs du même antigène (cellules supports). C'est ainsi qu'en 1955-1956, Coombs et al. démontrent la présence des antigène A et B sur les plaquettes ou les cellules épidermiques humaines à l'aide des globules rouges[1],[2]. Le caractère spécifique de la réaction est illustré par le Tableau 1
-Ce principe a été appliqué en 1973 par Lalezari à son circuit automatique d'agglutination en flux continu, en utilisant les globules rougesà la fois en tant que cellules tests et cellules supports[3]. Deux ans plus tard, Habibi et al. ont élargi cette application à d'autres méthodes d'hémagglutination en flux continu[4] et en ont précisé les avantages, les mécanismes et les paramètres techniques en l'utilisant pour l'étude des anticorps et des antigènes des globules rouges[5].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dans ce test, l'agglutination, témoin d'une réaction antigène-anticorps spécifique, implique deux  composantes  qui selon les cas peuvent être des particules inertes, des bactéries, ou d'autres cellules, en particulier des globules rouges. Dans ses applications immuno-hématologiques, l'agglutination des globules rougesporteurs d'un antigène donné (cellules tests), est provoquée par un anticorps spécifique de cet antigène qui, au lieu d'être libre comme dans le réactif liquide lors des groupages sanguins, est fixé, sans pouvoir les agglutiner, sur d'autres cellules porteurs du même antigène (cellules supports). C'est ainsi qu'en 1955-1956, Coombs et al. démontrent la présence des antigène A et B sur les plaquettes ou les cellules épidermiques humaines à l'aide des globules rouges,. Le caractère spécifique de la réaction est illustré par le Tableau 1
+Ce principe a été appliqué en 1973 par Lalezari à son circuit automatique d'agglutination en flux continu, en utilisant les globules rougesà la fois en tant que cellules tests et cellules supports. Deux ans plus tard, Habibi et al. ont élargi cette application à d'autres méthodes d'hémagglutination en flux continu et en ont précisé les avantages, les mécanismes et les paramètres techniques en l'utilisant pour l'étude des anticorps et des antigènes des globules rouges.
 </t>
         </is>
       </c>
@@ -543,7 +557,9 @@
           <t>Mécanismes</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Deux phénomènes conjoints expliquent la coagglutination. Premièrement, le transfert des molécules d'anticorps par proximité depuis les cellules supports où leur concentration est forte (sites antigéniques saturés) vers les cellules tests où cette concentration est nulle (sites antigéniques vacants), et deuxièmement, le pontage entre les deux protagonistes test et support (à condition qu'ils partagent la même spécificité antigénique), provoqué par l'anticorps, spontanément non agglutinant, dont un des sites fixant l'antigène est libre et spécifique de cet antigène commun.
 </t>
@@ -574,7 +590,9 @@
           <t>Avantages</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">1- L'économie de réactif : L'utilisation des globules rouges supports recouverts d'anticorps à la place d'anticorps en phase liquide réduit considérablement la consommation de celui-ci  lors des groupages sanguins.
 2- La possibilité d'utiliser des mélanges d'anticorps au lieu d'anticorps purifié : En sélectionnant les GR supports ayant une composition antigénique adaptée, ceux-ci tamiseront le mélange en ne fixant qu'une de ses  spécificités, les autres, non fixés, étant éliminés par simple lavage. Le mélange  pourra ainsi servir directement de réactif de groupage sans nécessité de purification préalable. Par exemple, un mélange d'anticorps anti-A, anti-B, anti-C et anti-D, fixé sur des GR supports porteurs de l'antigène D à l'exclusion des antigènes A, B et C deviendra un réactif anti-D mono-spécifique et pourra ainsi servir de réactif de groupage.
